--- a/DaySale_2025-05-25_14-53.xlsx
+++ b/DaySale_2025-05-25_14-53.xlsx
@@ -2227,7 +2227,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
